--- a/result.xlsx
+++ b/result.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="true"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
+    <workbookView windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" relationships:id="rId1"/>
-    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="4" relationships:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -325,17 +324,6 @@
     <sheetView tabSelected="true" defaultGridColor="false" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="true" defaultGridColor="false" workbookViewId="0"/>
-  </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -353,7 +341,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="B2" t="str">
         <v>1C</v>
@@ -381,7 +369,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="B4" t="str">
         <v>2C</v>
@@ -409,7 +397,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>3.00</v>
+        <v>3</v>
       </c>
       <c r="B6" t="str">
         <v>3C</v>
@@ -437,7 +425,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>4.00</v>
+        <v>4</v>
       </c>
       <c r="B8" t="str">
         <v>4C</v>
@@ -465,7 +453,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>5.00</v>
+        <v>5</v>
       </c>
       <c r="B10" t="str">
         <v>5C</v>
@@ -492,5 +480,6 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>